--- a/scripts_datasets_to_generate_input_files/(3) Observer_Costs/Data/final_supply_water_costs.xlsx
+++ b/scripts_datasets_to_generate_input_files/(3) Observer_Costs/Data/final_supply_water_costs.xlsx
@@ -2949,10 +2949,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="D2">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2963,10 +2963,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="D3">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3103,10 +3103,10 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="D13">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3117,7 +3117,7 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>3511</v>
+        <v>3501</v>
       </c>
       <c r="D14">
         <v>543</v>
@@ -3131,10 +3131,10 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D15">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3159,7 +3159,7 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="D17">
         <v>190</v>
@@ -3173,7 +3173,7 @@
         <v>37</v>
       </c>
       <c r="C18">
-        <v>5839</v>
+        <v>5834</v>
       </c>
       <c r="D18">
         <v>257</v>
@@ -3187,7 +3187,7 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>47</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>49</v>
       </c>
       <c r="C24">
-        <v>5105</v>
+        <v>5099</v>
       </c>
       <c r="D24">
-        <v>799</v>
+        <v>790</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3285,10 +3285,10 @@
         <v>53</v>
       </c>
       <c r="C26">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3372,7 +3372,7 @@
         <v>177</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3425,7 +3425,7 @@
         <v>73</v>
       </c>
       <c r="C36">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D36">
         <v>136</v>
@@ -3439,7 +3439,7 @@
         <v>75</v>
       </c>
       <c r="C37">
-        <v>9095</v>
+        <v>9087</v>
       </c>
       <c r="D37">
         <v>438</v>
@@ -3509,10 +3509,10 @@
         <v>85</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3537,7 +3537,7 @@
         <v>89</v>
       </c>
       <c r="C44">
-        <v>10710</v>
+        <v>10677</v>
       </c>
       <c r="D44">
         <v>1655</v>
@@ -3565,7 +3565,7 @@
         <v>93</v>
       </c>
       <c r="C46">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3607,10 +3607,10 @@
         <v>99</v>
       </c>
       <c r="C49">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="D49">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3638,7 +3638,7 @@
         <v>280</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3663,7 +3663,7 @@
         <v>107</v>
       </c>
       <c r="C53">
-        <v>2634</v>
+        <v>2626</v>
       </c>
       <c r="D53">
         <v>407</v>
@@ -3789,7 +3789,7 @@
         <v>125</v>
       </c>
       <c r="C62">
-        <v>15279</v>
+        <v>15238</v>
       </c>
       <c r="D62">
         <v>2091</v>
@@ -3817,10 +3817,10 @@
         <v>129</v>
       </c>
       <c r="C64">
-        <v>5827</v>
+        <v>5819</v>
       </c>
       <c r="D64">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3943,7 +3943,7 @@
         <v>147</v>
       </c>
       <c r="C73">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3957,7 +3957,7 @@
         <v>149</v>
       </c>
       <c r="C74">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D74">
         <v>7</v>
@@ -4027,10 +4027,10 @@
         <v>159</v>
       </c>
       <c r="C79">
-        <v>6049</v>
+        <v>6041</v>
       </c>
       <c r="D79">
-        <v>947</v>
+        <v>936</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4041,10 +4041,10 @@
         <v>161</v>
       </c>
       <c r="C80">
-        <v>2616</v>
+        <v>2611</v>
       </c>
       <c r="D80">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4097,7 +4097,7 @@
         <v>169</v>
       </c>
       <c r="C84">
-        <v>11163</v>
+        <v>11147</v>
       </c>
       <c r="D84">
         <v>847</v>
@@ -4195,10 +4195,10 @@
         <v>183</v>
       </c>
       <c r="C91">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="D91">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4265,7 +4265,7 @@
         <v>193</v>
       </c>
       <c r="C96">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4475,7 +4475,7 @@
         <v>223</v>
       </c>
       <c r="C111">
-        <v>6074</v>
+        <v>6070</v>
       </c>
       <c r="D111">
         <v>195</v>
@@ -4489,7 +4489,7 @@
         <v>225</v>
       </c>
       <c r="C112">
-        <v>5507</v>
+        <v>5501</v>
       </c>
       <c r="D112">
         <v>304</v>
@@ -4517,10 +4517,10 @@
         <v>229</v>
       </c>
       <c r="C114">
-        <v>3274</v>
+        <v>3270</v>
       </c>
       <c r="D114">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4531,7 +4531,7 @@
         <v>231</v>
       </c>
       <c r="C115">
-        <v>2651</v>
+        <v>2643</v>
       </c>
       <c r="D115">
         <v>407</v>
@@ -4587,7 +4587,7 @@
         <v>239</v>
       </c>
       <c r="C119">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D119">
         <v>69</v>
@@ -4601,7 +4601,7 @@
         <v>241</v>
       </c>
       <c r="C120">
-        <v>9481</v>
+        <v>9452</v>
       </c>
       <c r="D120">
         <v>1465</v>
@@ -4741,10 +4741,10 @@
         <v>261</v>
       </c>
       <c r="C130">
-        <v>3385</v>
+        <v>3381</v>
       </c>
       <c r="D130">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4811,7 +4811,7 @@
         <v>271</v>
       </c>
       <c r="C135">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>299</v>
       </c>
       <c r="C149">
-        <v>6074</v>
+        <v>6070</v>
       </c>
       <c r="D149">
         <v>222</v>
@@ -5119,10 +5119,10 @@
         <v>315</v>
       </c>
       <c r="C157">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D157">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5147,7 +5147,7 @@
         <v>319</v>
       </c>
       <c r="C159">
-        <v>14375</v>
+        <v>14333</v>
       </c>
       <c r="D159">
         <v>2117</v>
@@ -5203,10 +5203,10 @@
         <v>327</v>
       </c>
       <c r="C163">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="D163">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5259,7 +5259,7 @@
         <v>335</v>
       </c>
       <c r="C167">
-        <v>9004</v>
+        <v>8987</v>
       </c>
       <c r="D167">
         <v>872</v>
@@ -5301,7 +5301,7 @@
         <v>341</v>
       </c>
       <c r="C170">
-        <v>2282</v>
+        <v>2276</v>
       </c>
       <c r="D170">
         <v>353</v>
@@ -5357,7 +5357,7 @@
         <v>349</v>
       </c>
       <c r="C174">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D174">
         <v>136</v>
@@ -5511,10 +5511,10 @@
         <v>371</v>
       </c>
       <c r="C185">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5581,10 +5581,10 @@
         <v>381</v>
       </c>
       <c r="C190">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5595,7 +5595,7 @@
         <v>383</v>
       </c>
       <c r="C191">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="D191">
         <v>244</v>
@@ -5651,10 +5651,10 @@
         <v>391</v>
       </c>
       <c r="C195">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5679,7 +5679,7 @@
         <v>395</v>
       </c>
       <c r="C197">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D197">
         <v>81</v>
@@ -5707,10 +5707,10 @@
         <v>399</v>
       </c>
       <c r="C199">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D199">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5763,10 +5763,10 @@
         <v>407</v>
       </c>
       <c r="C203">
-        <v>6382</v>
+        <v>6374</v>
       </c>
       <c r="D203">
-        <v>999</v>
+        <v>988</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5777,10 +5777,10 @@
         <v>409</v>
       </c>
       <c r="C204">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D204">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5819,7 +5819,7 @@
         <v>415</v>
       </c>
       <c r="C207">
-        <v>6496</v>
+        <v>6476</v>
       </c>
       <c r="D207">
         <v>1004</v>
@@ -5875,10 +5875,10 @@
         <v>423</v>
       </c>
       <c r="C211">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D211">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5959,10 +5959,10 @@
         <v>435</v>
       </c>
       <c r="C217">
-        <v>7214</v>
+        <v>7205</v>
       </c>
       <c r="D217">
-        <v>1129</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5987,7 +5987,7 @@
         <v>439</v>
       </c>
       <c r="C219">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="D219">
         <v>22</v>
@@ -6015,7 +6015,7 @@
         <v>443</v>
       </c>
       <c r="C221">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D221">
         <v>163</v>
@@ -6071,10 +6071,10 @@
         <v>451</v>
       </c>
       <c r="C225">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6141,7 +6141,7 @@
         <v>461</v>
       </c>
       <c r="C230">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D230">
         <v>52</v>
@@ -6281,10 +6281,10 @@
         <v>481</v>
       </c>
       <c r="C240">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6477,7 +6477,7 @@
         <v>509</v>
       </c>
       <c r="C254">
-        <v>10359</v>
+        <v>10327</v>
       </c>
       <c r="D254">
         <v>1601</v>
@@ -6533,7 +6533,7 @@
         <v>517</v>
       </c>
       <c r="C258">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -6575,10 +6575,10 @@
         <v>523</v>
       </c>
       <c r="C261">
-        <v>4051</v>
+        <v>4046</v>
       </c>
       <c r="D261">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6631,7 +6631,7 @@
         <v>531</v>
       </c>
       <c r="C265">
-        <v>7901</v>
+        <v>7877</v>
       </c>
       <c r="D265">
         <v>1221</v>
@@ -6645,7 +6645,7 @@
         <v>533</v>
       </c>
       <c r="C266">
-        <v>5376</v>
+        <v>5370</v>
       </c>
       <c r="D266">
         <v>6</v>
@@ -6743,7 +6743,7 @@
         <v>547</v>
       </c>
       <c r="C273">
-        <v>9481</v>
+        <v>9452</v>
       </c>
       <c r="D273">
         <v>1465</v>
@@ -6771,7 +6771,7 @@
         <v>551</v>
       </c>
       <c r="C275">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D275">
         <v>136</v>
@@ -6785,10 +6785,10 @@
         <v>553</v>
       </c>
       <c r="C276">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D276">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6799,7 +6799,7 @@
         <v>555</v>
       </c>
       <c r="C277">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>561</v>
       </c>
       <c r="C280">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D280">
         <v>136</v>
@@ -6883,7 +6883,7 @@
         <v>567</v>
       </c>
       <c r="C283">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -6925,10 +6925,10 @@
         <v>573</v>
       </c>
       <c r="C286">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D286">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7023,7 +7023,7 @@
         <v>587</v>
       </c>
       <c r="C293">
-        <v>10359</v>
+        <v>10327</v>
       </c>
       <c r="D293">
         <v>1601</v>
@@ -7037,7 +7037,7 @@
         <v>589</v>
       </c>
       <c r="C294">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D294">
         <v>136</v>
@@ -7065,7 +7065,7 @@
         <v>593</v>
       </c>
       <c r="C296">
-        <v>6813</v>
+        <v>6804</v>
       </c>
       <c r="D296">
         <v>466</v>
@@ -7149,10 +7149,10 @@
         <v>605</v>
       </c>
       <c r="C302">
-        <v>8609</v>
+        <v>8594</v>
       </c>
       <c r="D302">
-        <v>1343</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7163,7 +7163,7 @@
         <v>607</v>
       </c>
       <c r="C303">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>611</v>
       </c>
       <c r="C305">
-        <v>8241</v>
+        <v>8225</v>
       </c>
       <c r="D305">
         <v>826</v>
@@ -7205,7 +7205,7 @@
         <v>613</v>
       </c>
       <c r="C306">
-        <v>6121</v>
+        <v>6110</v>
       </c>
       <c r="D306">
         <v>570</v>
@@ -7457,10 +7457,10 @@
         <v>649</v>
       </c>
       <c r="C324">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D324">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7499,7 +7499,7 @@
         <v>655</v>
       </c>
       <c r="C327">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -7541,10 +7541,10 @@
         <v>661</v>
       </c>
       <c r="C330">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D330">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -7583,7 +7583,7 @@
         <v>667</v>
       </c>
       <c r="C333">
-        <v>6321</v>
+        <v>6301</v>
       </c>
       <c r="D333">
         <v>977</v>
@@ -7625,10 +7625,10 @@
         <v>673</v>
       </c>
       <c r="C336">
-        <v>6881</v>
+        <v>6873</v>
       </c>
       <c r="D336">
-        <v>1077</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -7653,10 +7653,10 @@
         <v>677</v>
       </c>
       <c r="C338">
-        <v>7159</v>
+        <v>7150</v>
       </c>
       <c r="D338">
-        <v>1120</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7681,7 +7681,7 @@
         <v>681</v>
       </c>
       <c r="C340">
-        <v>8025</v>
+        <v>8013</v>
       </c>
       <c r="D340">
         <v>601</v>
@@ -7695,10 +7695,10 @@
         <v>683</v>
       </c>
       <c r="C341">
-        <v>4218</v>
+        <v>4212</v>
       </c>
       <c r="D341">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -7712,7 +7712,7 @@
         <v>6681</v>
       </c>
       <c r="D342">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -7751,10 +7751,10 @@
         <v>691</v>
       </c>
       <c r="C345">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D345">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -7835,10 +7835,10 @@
         <v>703</v>
       </c>
       <c r="C351">
-        <v>3885</v>
+        <v>3880</v>
       </c>
       <c r="D351">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -7891,7 +7891,7 @@
         <v>711</v>
       </c>
       <c r="C355">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="D355">
         <v>1</v>
@@ -7905,10 +7905,10 @@
         <v>713</v>
       </c>
       <c r="C356">
-        <v>1508</v>
+        <v>2439</v>
       </c>
       <c r="D356">
-        <v>222</v>
+        <v>378</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8073,7 +8073,7 @@
         <v>737</v>
       </c>
       <c r="C368">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D368">
         <v>136</v>
@@ -8087,10 +8087,10 @@
         <v>739</v>
       </c>
       <c r="C369">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="D369">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8129,10 +8129,10 @@
         <v>745</v>
       </c>
       <c r="C372">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="D372">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8311,10 +8311,10 @@
         <v>771</v>
       </c>
       <c r="C385">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D385">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -8356,7 +8356,7 @@
         <v>388</v>
       </c>
       <c r="D388">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -8395,7 +8395,7 @@
         <v>783</v>
       </c>
       <c r="C391">
-        <v>12343</v>
+        <v>12326</v>
       </c>
       <c r="D391">
         <v>876</v>
@@ -8521,10 +8521,10 @@
         <v>801</v>
       </c>
       <c r="C400">
-        <v>4025</v>
+        <v>2332</v>
       </c>
       <c r="D400">
-        <v>626</v>
+        <v>335</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -8549,10 +8549,10 @@
         <v>805</v>
       </c>
       <c r="C402">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="D402">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8563,7 +8563,7 @@
         <v>807</v>
       </c>
       <c r="C403">
-        <v>10347</v>
+        <v>10329</v>
       </c>
       <c r="D403">
         <v>900</v>
@@ -8577,7 +8577,7 @@
         <v>809</v>
       </c>
       <c r="C404">
-        <v>7422</v>
+        <v>7412</v>
       </c>
       <c r="D404">
         <v>493</v>
@@ -8619,10 +8619,10 @@
         <v>815</v>
       </c>
       <c r="C407">
-        <v>1931</v>
+        <v>1925</v>
       </c>
       <c r="D407">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8675,10 +8675,10 @@
         <v>823</v>
       </c>
       <c r="C411">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D411">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -8689,10 +8689,10 @@
         <v>825</v>
       </c>
       <c r="C412">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D412">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -8731,7 +8731,7 @@
         <v>831</v>
       </c>
       <c r="C415">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -8745,10 +8745,10 @@
         <v>833</v>
       </c>
       <c r="C416">
-        <v>7023</v>
+        <v>7002</v>
       </c>
       <c r="D416">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -8787,10 +8787,10 @@
         <v>839</v>
       </c>
       <c r="C419">
-        <v>5901</v>
+        <v>5893</v>
       </c>
       <c r="D419">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -8815,7 +8815,7 @@
         <v>843</v>
       </c>
       <c r="C421">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="D421">
         <v>217</v>
@@ -8829,10 +8829,10 @@
         <v>845</v>
       </c>
       <c r="C422">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D422">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="423" spans="1:4">
